--- a/06-08-2023/data/output/xlsx/sample_0/3_causality.xlsx
+++ b/06-08-2023/data/output/xlsx/sample_0/3_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
   <si>
     <t>name</t>
   </si>
@@ -334,25 +334,202 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_unknowns__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__10,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__10</t>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
 </sst>
 </file>
@@ -749,20 +926,17 @@
       <c r="C2">
         <v>968</v>
       </c>
-      <c r="D2">
-        <v>7.229453571447539</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
+      <c r="D2" t="s">
+        <v>105</v>
       </c>
       <c r="F2">
-        <v>11.06198347107438</v>
+        <v>0.04855371900826446</v>
       </c>
       <c r="G2">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H2">
-        <v>0.0609814670663642</v>
+        <v>-0.001546481392537144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -776,19 +950,19 @@
         <v>835</v>
       </c>
       <c r="D3">
-        <v>4.057166183651596</v>
+        <v>0.09511574924529125</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3">
-        <v>11.02994011976048</v>
+        <v>0.05149700598802395</v>
       </c>
       <c r="G3">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H3">
-        <v>0.02893811575246197</v>
+        <v>0.001396805587222348</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -801,17 +975,20 @@
       <c r="C4">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>105</v>
+      <c r="D4">
+        <v>-0.01180278482632573</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
       </c>
       <c r="F4">
-        <v>5.727272727272728</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G4">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H4">
-        <v>-5.273729276735289</v>
+        <v>0.1317179814173802</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -824,17 +1001,20 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>105</v>
+      <c r="D5">
+        <v>-0.04218645289645769</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
       </c>
       <c r="F5">
-        <v>6.111111111111111</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G5">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H5">
-        <v>-4.889890892896906</v>
+        <v>0.0610109107103095</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -847,17 +1027,20 @@
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>105</v>
+      <c r="D6">
+        <v>-0.04218645289645769</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
       </c>
       <c r="F6">
-        <v>6.111111111111111</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G6">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H6">
-        <v>-4.889890892896906</v>
+        <v>0.0610109107103095</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -870,17 +1053,20 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>105</v>
+      <c r="D7">
+        <v>-0.002882988426862314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
       </c>
       <c r="F7">
-        <v>5.666666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G7">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H7">
-        <v>-5.33433533734135</v>
+        <v>0.1165664662658651</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -893,17 +1079,20 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>105</v>
+      <c r="D8">
+        <v>0.02443691772777382</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
       </c>
       <c r="F8">
-        <v>6.6</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H8">
-        <v>-4.401002004008017</v>
+        <v>0.1498997995991984</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -916,17 +1105,20 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>105</v>
+      <c r="D9">
+        <v>0.04639848002707919</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
       </c>
       <c r="F9">
-        <v>4.75</v>
+        <v>0.25</v>
       </c>
       <c r="G9">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H9">
-        <v>-6.251002004008017</v>
+        <v>0.1998997995991984</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -943,13 +1135,13 @@
         <v>105</v>
       </c>
       <c r="F10">
-        <v>5.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H10">
-        <v>-5.667668670674684</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -966,13 +1158,13 @@
         <v>105</v>
       </c>
       <c r="F11">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H11">
-        <v>-3.501002004008017</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -985,17 +1177,20 @@
       <c r="C12">
         <v>427</v>
       </c>
-      <c r="D12" t="s">
-        <v>105</v>
+      <c r="D12">
+        <v>0.1128019484569364</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
       </c>
       <c r="F12">
-        <v>10.74004683840749</v>
+        <v>0.07025761124121779</v>
       </c>
       <c r="G12">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H12">
-        <v>-0.2609551656005227</v>
+        <v>0.02015741084041619</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1008,17 +1203,20 @@
       <c r="C13">
         <v>295</v>
       </c>
-      <c r="D13" t="s">
-        <v>105</v>
+      <c r="D13">
+        <v>0.1392739120903095</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
       </c>
       <c r="F13">
-        <v>10.24745762711864</v>
+        <v>0.08813559322033898</v>
       </c>
       <c r="G13">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H13">
-        <v>-0.7535443768893728</v>
+        <v>0.03803539281953738</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1031,17 +1229,20 @@
       <c r="C14">
         <v>175</v>
       </c>
-      <c r="D14" t="s">
-        <v>105</v>
+      <c r="D14">
+        <v>0.1527133861821912</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
       </c>
       <c r="F14">
-        <v>9.800000000000001</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="G14">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H14">
-        <v>-1.201002004008016</v>
+        <v>0.05847122817062696</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1054,17 +1255,20 @@
       <c r="C15">
         <v>130</v>
       </c>
-      <c r="D15" t="s">
-        <v>105</v>
+      <c r="D15">
+        <v>0.160842431585411</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
       </c>
       <c r="F15">
-        <v>9.699999999999999</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="G15">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H15">
-        <v>-1.301002004008017</v>
+        <v>0.07297672267612149</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1077,17 +1281,20 @@
       <c r="C16">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
-        <v>105</v>
+      <c r="D16">
+        <v>0.1935351783149528</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
       </c>
       <c r="F16">
-        <v>9.858974358974359</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="G16">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H16">
-        <v>-1.142027645033657</v>
+        <v>0.09092544062483943</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1100,17 +1307,20 @@
       <c r="C17">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
-        <v>105</v>
+      <c r="D17">
+        <v>0.1882153386341049</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
       </c>
       <c r="F17">
-        <v>8.73076923076923</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G17">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H17">
-        <v>-2.270232773238787</v>
+        <v>0.1229767226761215</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1123,17 +1333,20 @@
       <c r="C18">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>105</v>
+      <c r="D18">
+        <v>0.2307286654137356</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
       </c>
       <c r="F18">
-        <v>7.038461538461538</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G18">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H18">
-        <v>-3.962540465546478</v>
+        <v>0.1806690303684292</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1146,17 +1359,20 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>105</v>
+      <c r="D19">
+        <v>0.2508341757035326</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
       </c>
       <c r="F19">
-        <v>6.176470588235294</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G19">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H19">
-        <v>-4.824531415772722</v>
+        <v>0.2440174466580219</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1169,17 +1385,20 @@
       <c r="C20">
         <v>650</v>
       </c>
-      <c r="D20" t="s">
-        <v>105</v>
+      <c r="D20">
+        <v>0.007803088552821105</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
       </c>
       <c r="F20">
-        <v>9.813846153846153</v>
+        <v>0.06615384615384616</v>
       </c>
       <c r="G20">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H20">
-        <v>-1.187155850161863</v>
+        <v>0.01605364575304456</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1192,17 +1411,20 @@
       <c r="C21">
         <v>522</v>
       </c>
-      <c r="D21" t="s">
-        <v>105</v>
+      <c r="D21">
+        <v>0.0008452806648163264</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
       </c>
       <c r="F21">
-        <v>9.298850574712644</v>
+        <v>0.06513409961685823</v>
       </c>
       <c r="G21">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H21">
-        <v>-1.702151429295373</v>
+        <v>0.01503389921605663</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1215,17 +1437,20 @@
       <c r="C22">
         <v>36</v>
       </c>
-      <c r="D22" t="s">
-        <v>105</v>
+      <c r="D22">
+        <v>0.06538363563645047</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>8.722222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G22">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H22">
-        <v>-2.278779781785795</v>
+        <v>0.0610109107103095</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1238,17 +1463,20 @@
       <c r="C23">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>105</v>
+      <c r="D23">
+        <v>0.04427536350535084</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
       </c>
       <c r="F23">
-        <v>9.555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G23">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H23">
-        <v>-1.445446448452461</v>
+        <v>0.0610109107103095</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1261,17 +1489,20 @@
       <c r="C24">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>105</v>
+      <c r="D24">
+        <v>0.06615869843751614</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
       </c>
       <c r="F24">
-        <v>7.75</v>
+        <v>0.125</v>
       </c>
       <c r="G24">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H24">
-        <v>-3.251002004008017</v>
+        <v>0.0748997995991984</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1284,17 +1515,20 @@
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
-        <v>105</v>
+      <c r="D25">
+        <v>0.09583198555471853</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
       </c>
       <c r="F25">
-        <v>6.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G25">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H25">
-        <v>-4.751002004008017</v>
+        <v>0.1165664662658651</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1307,17 +1541,20 @@
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
-        <v>105</v>
+      <c r="D26">
+        <v>0.1304136234091549</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="F26">
-        <v>6.777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G26">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H26">
-        <v>-4.223224226230239</v>
+        <v>0.1721220218214206</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1330,17 +1567,20 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>105</v>
+      <c r="D27">
+        <v>0.1476964607931944</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
       </c>
       <c r="F27">
-        <v>7.5</v>
+        <v>0.25</v>
       </c>
       <c r="G27">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H27">
-        <v>-3.501002004008017</v>
+        <v>0.1998997995991984</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1353,17 +1593,20 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" t="s">
-        <v>105</v>
+      <c r="D28">
+        <v>0.1648672697375557</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
       </c>
       <c r="F28">
-        <v>5.5</v>
+        <v>0.25</v>
       </c>
       <c r="G28">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H28">
-        <v>-5.501002004008017</v>
+        <v>0.1998997995991984</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1376,17 +1619,20 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
-        <v>105</v>
+      <c r="D29">
+        <v>0.2065355465608901</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
       </c>
       <c r="F29">
-        <v>2.666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H29">
-        <v>-8.334335337341351</v>
+        <v>0.2832331329325317</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1399,17 +1645,20 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>105</v>
+      <c r="D30">
+        <v>0.2065355465608901</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
       </c>
       <c r="F30">
-        <v>2.666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H30">
-        <v>-8.334335337341351</v>
+        <v>0.2832331329325317</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1426,13 +1675,13 @@
         <v>105</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H31">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1445,17 +1694,20 @@
       <c r="C32">
         <v>411</v>
       </c>
-      <c r="D32" t="s">
-        <v>105</v>
+      <c r="D32">
+        <v>-0.002770614877184548</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
       </c>
       <c r="F32">
-        <v>9.299270072992702</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="G32">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H32">
-        <v>-1.701731931015315</v>
+        <v>0.008293960183139999</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1472,13 +1724,13 @@
         <v>105</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H33">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1495,13 +1747,13 @@
         <v>105</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H34">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1514,17 +1766,20 @@
       <c r="C35">
         <v>303</v>
       </c>
-      <c r="D35" t="s">
-        <v>105</v>
+      <c r="D35">
+        <v>0.01460981082810492</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
       </c>
       <c r="F35">
-        <v>8.508250825082508</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="G35">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H35">
-        <v>-2.492751178925509</v>
+        <v>0.0159064002592644</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1537,17 +1792,20 @@
       <c r="C36">
         <v>207</v>
       </c>
-      <c r="D36" t="s">
-        <v>105</v>
+      <c r="D36">
+        <v>0.03413792571615509</v>
+      </c>
+      <c r="E36" t="s">
+        <v>134</v>
       </c>
       <c r="F36">
-        <v>8.42512077294686</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="G36">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H36">
-        <v>-2.575881231061157</v>
+        <v>0.0320254034639327</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1560,17 +1818,20 @@
       <c r="C37">
         <v>163</v>
       </c>
-      <c r="D37" t="s">
-        <v>105</v>
+      <c r="D37">
+        <v>0.05901455958183172</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
       </c>
       <c r="F37">
-        <v>8.742331288343559</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="G37">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H37">
-        <v>-2.258670715664458</v>
+        <v>0.041924339476499</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1583,17 +1844,20 @@
       <c r="C38">
         <v>112</v>
       </c>
-      <c r="D38" t="s">
-        <v>105</v>
+      <c r="D38">
+        <v>0.1170260140274762</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
       </c>
       <c r="F38">
-        <v>8.535714285714286</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="G38">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H38">
-        <v>-2.46528771829373</v>
+        <v>0.05704265674205553</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1606,17 +1870,20 @@
       <c r="C39">
         <v>89</v>
       </c>
-      <c r="D39" t="s">
-        <v>105</v>
+      <c r="D39">
+        <v>0.1476632951777977</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
       </c>
       <c r="F39">
-        <v>8.51685393258427</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="G39">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H39">
-        <v>-2.484148071423746</v>
+        <v>0.06225935016099614</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1629,17 +1896,20 @@
       <c r="C40">
         <v>59</v>
       </c>
-      <c r="D40" t="s">
-        <v>105</v>
+      <c r="D40">
+        <v>0.1713770724386434</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
       </c>
       <c r="F40">
-        <v>7.915254237288136</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="G40">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H40">
-        <v>-3.085747766719881</v>
+        <v>0.08549301993818145</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1652,17 +1922,20 @@
       <c r="C41">
         <v>45</v>
       </c>
-      <c r="D41" t="s">
-        <v>105</v>
+      <c r="D41">
+        <v>0.08585438200329211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
       </c>
       <c r="F41">
-        <v>7.911111111111111</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G41">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H41">
-        <v>-3.089890892896905</v>
+        <v>0.08323313293253173</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1675,20 +1948,17 @@
       <c r="C42">
         <v>996</v>
       </c>
-      <c r="D42">
-        <v>10.86093110930142</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
+      <c r="D42" t="s">
+        <v>105</v>
       </c>
       <c r="F42">
-        <v>11.01907630522088</v>
+        <v>0.04919678714859438</v>
       </c>
       <c r="G42">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H42">
-        <v>0.01807430121286657</v>
+        <v>-0.0009034132522072261</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1701,20 +1971,17 @@
       <c r="C43">
         <v>991</v>
       </c>
-      <c r="D43">
-        <v>5.415386801013085</v>
-      </c>
-      <c r="E43" t="s">
-        <v>109</v>
+      <c r="D43" t="s">
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>11.029263370333</v>
+        <v>0.04944500504540868</v>
       </c>
       <c r="G43">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H43">
-        <v>0.02826136632497978</v>
+        <v>-0.0006551953553929277</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1727,17 +1994,20 @@
       <c r="C44">
         <v>12</v>
       </c>
-      <c r="D44" t="s">
-        <v>105</v>
+      <c r="D44">
+        <v>-0.07063517547165778</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
       </c>
       <c r="F44">
-        <v>5.583333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G44">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H44">
-        <v>-5.417668670674684</v>
+        <v>0.03323313293253172</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1754,13 +2024,13 @@
         <v>105</v>
       </c>
       <c r="F45">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H45">
-        <v>-8.501002004008017</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1777,13 +2047,13 @@
         <v>105</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H46">
-        <v>-7.001002004008017</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,17 +2066,20 @@
       <c r="C47">
         <v>649</v>
       </c>
-      <c r="D47" t="s">
-        <v>105</v>
+      <c r="D47">
+        <v>0.1199004505838952</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
       </c>
       <c r="F47">
-        <v>10.70878274268105</v>
+        <v>0.06317411402157165</v>
       </c>
       <c r="G47">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H47">
-        <v>-0.2922192613269683</v>
+        <v>0.01307391362077005</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1819,17 +2092,20 @@
       <c r="C48">
         <v>475</v>
       </c>
-      <c r="D48" t="s">
-        <v>105</v>
+      <c r="D48">
+        <v>0.1034130840254746</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
       </c>
       <c r="F48">
-        <v>10.6021052631579</v>
+        <v>0.06947368421052631</v>
       </c>
       <c r="G48">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H48">
-        <v>-0.3988967408501214</v>
+        <v>0.01937348380972471</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1842,17 +2118,20 @@
       <c r="C49">
         <v>307</v>
       </c>
-      <c r="D49" t="s">
-        <v>105</v>
+      <c r="D49">
+        <v>0.06428385802241351</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
       </c>
       <c r="F49">
-        <v>10.74918566775244</v>
+        <v>0.07166123778501629</v>
       </c>
       <c r="G49">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H49">
-        <v>-0.2518163362555743</v>
+        <v>0.02156103738421469</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1865,17 +2144,20 @@
       <c r="C50">
         <v>233</v>
       </c>
-      <c r="D50" t="s">
-        <v>105</v>
+      <c r="D50">
+        <v>0.08129624419515386</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
       </c>
       <c r="F50">
-        <v>10.54077253218884</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="G50">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H50">
-        <v>-0.4602294718191757</v>
+        <v>0.02715301848331857</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1888,17 +2170,20 @@
       <c r="C51">
         <v>154</v>
       </c>
-      <c r="D51" t="s">
-        <v>105</v>
+      <c r="D51">
+        <v>-0.1557828378988978</v>
+      </c>
+      <c r="E51" t="s">
+        <v>145</v>
       </c>
       <c r="F51">
-        <v>10.14935064935065</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="G51">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H51">
-        <v>-0.851651354657367</v>
+        <v>0.03431538401478281</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1911,17 +2196,20 @@
       <c r="C52">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
-        <v>105</v>
+      <c r="D52">
+        <v>-0.1286386350335064</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
       </c>
       <c r="F52">
-        <v>10.26732673267327</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="G52">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H52">
-        <v>-0.7336752713347501</v>
+        <v>0.0291077203912776</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1934,17 +2222,20 @@
       <c r="C53">
         <v>62</v>
       </c>
-      <c r="D53" t="s">
-        <v>105</v>
+      <c r="D53">
+        <v>-0.1337214395515241</v>
+      </c>
+      <c r="E53" t="s">
+        <v>147</v>
       </c>
       <c r="F53">
-        <v>10.03225806451613</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G53">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H53">
-        <v>-0.9687439394918869</v>
+        <v>0.01441592863145646</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1957,17 +2248,20 @@
       <c r="C54">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
-        <v>105</v>
+      <c r="D54">
+        <v>-0.1079323865343456</v>
+      </c>
+      <c r="E54" t="s">
+        <v>148</v>
       </c>
       <c r="F54">
-        <v>8.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G54">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H54">
-        <v>-2.901002004008017</v>
+        <v>0.01656646626586506</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1980,17 +2274,20 @@
       <c r="C55">
         <v>216</v>
       </c>
-      <c r="D55" t="s">
-        <v>105</v>
+      <c r="D55">
+        <v>0.102137285109618</v>
+      </c>
+      <c r="E55" t="s">
+        <v>149</v>
       </c>
       <c r="F55">
-        <v>7.791666666666667</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="G55">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H55">
-        <v>-3.20933533734135</v>
+        <v>0.04712202182142062</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2003,17 +2300,20 @@
       <c r="C56">
         <v>171</v>
       </c>
-      <c r="D56" t="s">
-        <v>105</v>
+      <c r="D56">
+        <v>0.1044480355889112</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
       </c>
       <c r="F56">
-        <v>7.730994152046784</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="G56">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H56">
-        <v>-3.270007851961233</v>
+        <v>0.04346705106118669</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2026,17 +2326,20 @@
       <c r="C57">
         <v>9</v>
       </c>
-      <c r="D57" t="s">
-        <v>105</v>
+      <c r="D57">
+        <v>-0.0764167932811861</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
       </c>
       <c r="F57">
-        <v>4.888888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G57">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H57">
-        <v>-6.112113115119127</v>
+        <v>0.0610109107103095</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2049,17 +2352,20 @@
       <c r="C58">
         <v>8</v>
       </c>
-      <c r="D58" t="s">
-        <v>105</v>
+      <c r="D58">
+        <v>-0.06776425584455355</v>
+      </c>
+      <c r="E58" t="s">
+        <v>152</v>
       </c>
       <c r="F58">
-        <v>5.375</v>
+        <v>0.125</v>
       </c>
       <c r="G58">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H58">
-        <v>-5.626002004008017</v>
+        <v>0.0748997995991984</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2076,13 +2382,13 @@
         <v>105</v>
       </c>
       <c r="F59">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H59">
-        <v>-4.501002004008017</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2099,13 +2405,13 @@
         <v>105</v>
       </c>
       <c r="F60">
-        <v>6.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H60">
-        <v>-4.667668670674684</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2122,13 +2428,13 @@
         <v>105</v>
       </c>
       <c r="F61">
-        <v>6.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H61">
-        <v>-4.667668670674684</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2145,13 +2451,13 @@
         <v>105</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H62">
-        <v>-6.001002004008017</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2164,17 +2470,20 @@
       <c r="C63">
         <v>110</v>
       </c>
-      <c r="D63" t="s">
-        <v>105</v>
+      <c r="D63">
+        <v>0.1293934913012947</v>
+      </c>
+      <c r="E63" t="s">
+        <v>153</v>
       </c>
       <c r="F63">
-        <v>7.445454545454545</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="G63">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H63">
-        <v>-3.555547458553471</v>
+        <v>0.03171798141738021</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2187,17 +2496,20 @@
       <c r="C64">
         <v>93</v>
       </c>
-      <c r="D64" t="s">
-        <v>105</v>
+      <c r="D64">
+        <v>0.05570000407902696</v>
+      </c>
+      <c r="E64" t="s">
+        <v>154</v>
       </c>
       <c r="F64">
-        <v>7.709677419354839</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="G64">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H64">
-        <v>-3.291324584653178</v>
+        <v>0.02516861680349947</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2210,17 +2522,20 @@
       <c r="C65">
         <v>69</v>
       </c>
-      <c r="D65" t="s">
-        <v>105</v>
+      <c r="D65">
+        <v>0.1054895765330557</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
       </c>
       <c r="F65">
-        <v>7.27536231884058</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="G65">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H65">
-        <v>-3.725639685167437</v>
+        <v>0.05134907496151724</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2233,17 +2548,20 @@
       <c r="C66">
         <v>53</v>
       </c>
-      <c r="D66" t="s">
-        <v>105</v>
+      <c r="D66">
+        <v>0.03724211131963798</v>
+      </c>
+      <c r="E66" t="s">
+        <v>156</v>
       </c>
       <c r="F66">
-        <v>7.150943396226415</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G66">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H66">
-        <v>-3.850058607781602</v>
+        <v>0.006503573184104057</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2256,17 +2574,20 @@
       <c r="C67">
         <v>32</v>
       </c>
-      <c r="D67" t="s">
-        <v>105</v>
+      <c r="D67">
+        <v>0.0680298093996926</v>
+      </c>
+      <c r="E67" t="s">
+        <v>157</v>
       </c>
       <c r="F67">
-        <v>7.28125</v>
+        <v>0.09375</v>
       </c>
       <c r="G67">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H67">
-        <v>-3.719752004008017</v>
+        <v>0.0436497995991984</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2279,17 +2600,20 @@
       <c r="C68">
         <v>25</v>
       </c>
-      <c r="D68" t="s">
-        <v>105</v>
+      <c r="D68">
+        <v>0.06107077302876186</v>
+      </c>
+      <c r="E68" t="s">
+        <v>158</v>
       </c>
       <c r="F68">
-        <v>5.96</v>
+        <v>0.08</v>
       </c>
       <c r="G68">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H68">
-        <v>-5.041002004008017</v>
+        <v>0.0298997995991984</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2302,17 +2626,20 @@
       <c r="C69">
         <v>17</v>
       </c>
-      <c r="D69" t="s">
-        <v>105</v>
+      <c r="D69">
+        <v>0.08410951711099435</v>
+      </c>
+      <c r="E69" t="s">
+        <v>159</v>
       </c>
       <c r="F69">
-        <v>5.823529411764706</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G69">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H69">
-        <v>-5.177472592243311</v>
+        <v>0.06754685842272781</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2325,17 +2652,20 @@
       <c r="C70">
         <v>11</v>
       </c>
-      <c r="D70" t="s">
-        <v>105</v>
+      <c r="D70">
+        <v>-0.09023065516247897</v>
+      </c>
+      <c r="E70" t="s">
+        <v>160</v>
       </c>
       <c r="F70">
-        <v>5.545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G70">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H70">
-        <v>-5.455547458553471</v>
+        <v>0.04080889050828931</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2352,10 +2682,10 @@
         <v>105</v>
       </c>
       <c r="F71">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="G71">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2372,19 +2702,19 @@
         <v>708</v>
       </c>
       <c r="D72">
-        <v>4.036060392289436</v>
+        <v>0.09643909877046947</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="F72">
-        <v>11.00847457627119</v>
+        <v>0.05367231638418079</v>
       </c>
       <c r="G72">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H72">
-        <v>0.007472572263170107</v>
+        <v>0.003572115983379184</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2397,20 +2727,17 @@
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73">
-        <v>2.809460693602245</v>
-      </c>
-      <c r="E73" t="s">
-        <v>111</v>
+      <c r="D73" t="s">
+        <v>105</v>
       </c>
       <c r="F73">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H73">
-        <v>0.9989979959919832</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2423,17 +2750,20 @@
       <c r="C74">
         <v>121</v>
       </c>
-      <c r="D74" t="s">
-        <v>105</v>
+      <c r="D74">
+        <v>-0.01379757699742355</v>
+      </c>
+      <c r="E74" t="s">
+        <v>162</v>
       </c>
       <c r="F74">
-        <v>8.314049586776859</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="G74">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H74">
-        <v>-2.686952417231158</v>
+        <v>0.01601550207853724</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2450,13 +2780,13 @@
         <v>105</v>
       </c>
       <c r="F75">
-        <v>7.555555555555555</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G75">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H75">
-        <v>-3.445446448452461</v>
+        <v>-0.03158168188228309</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2473,13 +2803,13 @@
         <v>105</v>
       </c>
       <c r="F76">
-        <v>7.419354838709677</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G76">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H76">
-        <v>-3.58164716529834</v>
+        <v>-0.01784213588467257</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2496,13 +2826,13 @@
         <v>105</v>
       </c>
       <c r="F77">
-        <v>6.095238095238095</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H77">
-        <v>-4.905763908769922</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2519,13 +2849,13 @@
         <v>105</v>
       </c>
       <c r="F78">
-        <v>6.363636363636363</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H78">
-        <v>-4.637365640371653</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2542,13 +2872,13 @@
         <v>105</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H79">
-        <v>-4.001002004008017</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2565,13 +2895,13 @@
         <v>105</v>
       </c>
       <c r="F80">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H80">
-        <v>-4.501002004008017</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2584,20 +2914,17 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81">
-        <v>2.809460693602245</v>
-      </c>
-      <c r="E81" t="s">
-        <v>112</v>
+      <c r="D81" t="s">
+        <v>105</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H81">
-        <v>0.9989979959919832</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2610,17 +2937,20 @@
       <c r="C82">
         <v>457</v>
       </c>
-      <c r="D82" t="s">
-        <v>105</v>
+      <c r="D82">
+        <v>0.1207398953397716</v>
+      </c>
+      <c r="E82" t="s">
+        <v>163</v>
       </c>
       <c r="F82">
-        <v>10.30853391684902</v>
+        <v>0.07221006564551423</v>
       </c>
       <c r="G82">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H82">
-        <v>-0.6924680871590017</v>
+        <v>0.02210986524471262</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2633,17 +2963,20 @@
       <c r="C83">
         <v>180</v>
       </c>
-      <c r="D83" t="s">
-        <v>105</v>
+      <c r="D83">
+        <v>0.04886713250561906</v>
+      </c>
+      <c r="E83" t="s">
+        <v>164</v>
       </c>
       <c r="F83">
-        <v>8.838888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G83">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H83">
-        <v>-2.162113115119128</v>
+        <v>0.0610109107103095</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2660,13 +2993,13 @@
         <v>105</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H84">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2683,13 +3016,13 @@
         <v>105</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H85">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,13 +3039,13 @@
         <v>105</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H86">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2729,13 +3062,13 @@
         <v>105</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H87">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2752,13 +3085,13 @@
         <v>105</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H88">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2775,13 +3108,13 @@
         <v>105</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H89">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2798,13 +3131,13 @@
         <v>105</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H90">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2821,13 +3154,13 @@
         <v>105</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H91">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2840,17 +3173,20 @@
       <c r="C92">
         <v>94</v>
       </c>
-      <c r="D92" t="s">
-        <v>105</v>
+      <c r="D92">
+        <v>0.07545377950418672</v>
+      </c>
+      <c r="E92" t="s">
+        <v>165</v>
       </c>
       <c r="F92">
-        <v>8.329787234042554</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="G92">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H92">
-        <v>-2.671214769965463</v>
+        <v>0.05628277832260265</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2863,17 +3199,20 @@
       <c r="C93">
         <v>55</v>
       </c>
-      <c r="D93" t="s">
-        <v>105</v>
+      <c r="D93">
+        <v>0.1318926041667459</v>
+      </c>
+      <c r="E93" t="s">
+        <v>166</v>
       </c>
       <c r="F93">
-        <v>7.581818181818182</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="G93">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H93">
-        <v>-3.419183822189835</v>
+        <v>0.113536163235562</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2886,17 +3225,20 @@
       <c r="C94">
         <v>30</v>
       </c>
-      <c r="D94" t="s">
-        <v>105</v>
+      <c r="D94">
+        <v>0.01808428137165477</v>
+      </c>
+      <c r="E94" t="s">
+        <v>167</v>
       </c>
       <c r="F94">
-        <v>7.4</v>
+        <v>0.1</v>
       </c>
       <c r="G94">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H94">
-        <v>-3.601002004008016</v>
+        <v>0.0498997995991984</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2909,17 +3251,20 @@
       <c r="C95">
         <v>21</v>
       </c>
-      <c r="D95" t="s">
-        <v>105</v>
+      <c r="D95">
+        <v>0.06823363439613432</v>
+      </c>
+      <c r="E95" t="s">
+        <v>168</v>
       </c>
       <c r="F95">
-        <v>6.142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G95">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H95">
-        <v>-4.858144861150874</v>
+        <v>0.09275694245634125</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2932,17 +3277,20 @@
       <c r="C96">
         <v>7</v>
       </c>
-      <c r="D96" t="s">
-        <v>105</v>
+      <c r="D96">
+        <v>0.09250490665070497</v>
+      </c>
+      <c r="E96" t="s">
+        <v>169</v>
       </c>
       <c r="F96">
-        <v>2.714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G96">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H96">
-        <v>-8.286716289722303</v>
+        <v>0.09275694245634125</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2955,17 +3303,20 @@
       <c r="C97">
         <v>5</v>
       </c>
-      <c r="D97" t="s">
-        <v>105</v>
+      <c r="D97">
+        <v>0.1420989466307804</v>
+      </c>
+      <c r="E97" t="s">
+        <v>170</v>
       </c>
       <c r="F97">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="G97">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H97">
-        <v>-7.601002004008016</v>
+        <v>0.1498997995991984</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2978,17 +3329,20 @@
       <c r="C98">
         <v>2</v>
       </c>
-      <c r="D98" t="s">
-        <v>105</v>
+      <c r="D98">
+        <v>0.2875524221291065</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G98">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H98">
-        <v>-9.001002004008017</v>
+        <v>0.4498997995991984</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3005,13 +3359,13 @@
         <v>105</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>11.00100200400802</v>
+        <v>0.0501002004008016</v>
       </c>
       <c r="H99">
-        <v>-10.00100200400802</v>
+        <v>-0.0501002004008016</v>
       </c>
     </row>
   </sheetData>
